--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H2">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.12540955392633</v>
+        <v>0.1882753333333333</v>
       </c>
       <c r="N2">
-        <v>8.12540955392633</v>
+        <v>0.5648259999999999</v>
       </c>
       <c r="O2">
-        <v>0.7339540357541608</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="P2">
-        <v>0.7339540357541608</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="Q2">
-        <v>237.2565128237435</v>
+        <v>6.007935360264666</v>
       </c>
       <c r="R2">
-        <v>237.2565128237435</v>
+        <v>54.07141824238199</v>
       </c>
       <c r="S2">
-        <v>0.4177478937227814</v>
+        <v>0.009222528089190375</v>
       </c>
       <c r="T2">
-        <v>0.4177478937227814</v>
+        <v>0.009222528089190373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H3">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.100010945360181</v>
+        <v>8.179402000000001</v>
       </c>
       <c r="N3">
-        <v>0.100010945360181</v>
+        <v>24.538206</v>
       </c>
       <c r="O3">
-        <v>0.009033813800957758</v>
+        <v>0.6908224842953787</v>
       </c>
       <c r="P3">
-        <v>0.009033813800957758</v>
+        <v>0.6908224842953786</v>
       </c>
       <c r="Q3">
-        <v>2.920252571009989</v>
+        <v>261.007736019338</v>
       </c>
       <c r="R3">
-        <v>2.920252571009989</v>
+        <v>2349.069624174042</v>
       </c>
       <c r="S3">
-        <v>0.005141816113533787</v>
+        <v>0.4006619633185085</v>
       </c>
       <c r="T3">
-        <v>0.005141816113533787</v>
+        <v>0.4006619633185083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H4">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I4">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J4">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.84531303183607</v>
+        <v>0.002236</v>
       </c>
       <c r="N4">
-        <v>2.84531303183607</v>
+        <v>0.006708</v>
       </c>
       <c r="O4">
-        <v>0.2570121504448814</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="P4">
-        <v>0.2570121504448814</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="Q4">
-        <v>83.0812334252339</v>
+        <v>0.071351585084</v>
       </c>
       <c r="R4">
-        <v>83.0812334252339</v>
+        <v>0.6421642657560001</v>
       </c>
       <c r="S4">
-        <v>0.1462847525583664</v>
+        <v>0.0001095288078493006</v>
       </c>
       <c r="T4">
-        <v>0.1462847525583664</v>
+        <v>0.0001095288078493006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.1979107735191</v>
+        <v>31.910369</v>
       </c>
       <c r="H5">
-        <v>11.1979107735191</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I5">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J5">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.12540955392633</v>
+        <v>0.1179923333333333</v>
       </c>
       <c r="N5">
-        <v>8.12540955392633</v>
+        <v>0.353977</v>
       </c>
       <c r="O5">
-        <v>0.7339540357541608</v>
+        <v>0.009965490978575419</v>
       </c>
       <c r="P5">
-        <v>0.7339540357541608</v>
+        <v>0.009965490978575417</v>
       </c>
       <c r="Q5">
-        <v>90.98761118316668</v>
+        <v>3.765178895837666</v>
       </c>
       <c r="R5">
-        <v>90.98761118316668</v>
+        <v>33.886610062539</v>
       </c>
       <c r="S5">
-        <v>0.1602058568350981</v>
+        <v>0.005779767265365513</v>
       </c>
       <c r="T5">
-        <v>0.1602058568350981</v>
+        <v>0.005779767265365512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.1979107735191</v>
+        <v>31.910369</v>
       </c>
       <c r="H6">
-        <v>11.1979107735191</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I6">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J6">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.100010945360181</v>
+        <v>3.352186666666667</v>
       </c>
       <c r="N6">
-        <v>0.100010945360181</v>
+        <v>10.05656</v>
       </c>
       <c r="O6">
-        <v>0.009033813800957758</v>
+        <v>0.2831216659712423</v>
       </c>
       <c r="P6">
-        <v>0.009033813800957758</v>
+        <v>0.2831216659712423</v>
       </c>
       <c r="Q6">
-        <v>1.119913642518601</v>
+        <v>106.9695134902133</v>
       </c>
       <c r="R6">
-        <v>1.119913642518601</v>
+        <v>962.7256214119201</v>
       </c>
       <c r="S6">
-        <v>0.001971880812650695</v>
+        <v>0.1642043869804654</v>
       </c>
       <c r="T6">
-        <v>0.001971880812650695</v>
+        <v>0.1642043869804654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H7">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J7">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.84531303183607</v>
+        <v>0.1882753333333333</v>
       </c>
       <c r="N7">
-        <v>2.84531303183607</v>
+        <v>0.5648259999999999</v>
       </c>
       <c r="O7">
-        <v>0.2570121504448814</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="P7">
-        <v>0.2570121504448814</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="Q7">
-        <v>31.86156145323142</v>
+        <v>2.150194114000667</v>
       </c>
       <c r="R7">
-        <v>31.86156145323142</v>
+        <v>19.351747026006</v>
       </c>
       <c r="S7">
-        <v>0.05610004138303417</v>
+        <v>0.003300672265007422</v>
       </c>
       <c r="T7">
-        <v>0.05610004138303417</v>
+        <v>0.003300672265007421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,119 +909,119 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.371096004150272</v>
+        <v>11.420477</v>
       </c>
       <c r="H8">
-        <v>0.371096004150272</v>
+        <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J8">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.12540955392633</v>
+        <v>8.179402000000001</v>
       </c>
       <c r="N8">
-        <v>8.12540955392633</v>
+        <v>24.538206</v>
       </c>
       <c r="O8">
-        <v>0.7339540357541608</v>
+        <v>0.6908224842953787</v>
       </c>
       <c r="P8">
-        <v>0.7339540357541608</v>
+        <v>0.6908224842953786</v>
       </c>
       <c r="Q8">
-        <v>3.015307017546505</v>
+        <v>93.41267241475401</v>
       </c>
       <c r="R8">
-        <v>3.015307017546505</v>
+        <v>840.7140517327862</v>
       </c>
       <c r="S8">
-        <v>0.005309182624813138</v>
+        <v>0.1433938522257097</v>
       </c>
       <c r="T8">
-        <v>0.005309182624813138</v>
+        <v>0.1433938522257097</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.371096004150272</v>
+        <v>11.420477</v>
       </c>
       <c r="H9">
-        <v>0.371096004150272</v>
+        <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J9">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.100010945360181</v>
+        <v>0.002236</v>
       </c>
       <c r="N9">
-        <v>0.100010945360181</v>
+        <v>0.006708</v>
       </c>
       <c r="O9">
-        <v>0.009033813800957758</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="P9">
-        <v>0.009033813800957758</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="Q9">
-        <v>0.03711366219445435</v>
+        <v>0.025536186572</v>
       </c>
       <c r="R9">
-        <v>0.03711366219445435</v>
+        <v>0.229825679148</v>
       </c>
       <c r="S9">
-        <v>6.534764430930531E-05</v>
+        <v>3.919952260283661E-05</v>
       </c>
       <c r="T9">
-        <v>6.534764430930531E-05</v>
+        <v>3.91995226028366E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.371096004150272</v>
+        <v>11.420477</v>
       </c>
       <c r="H10">
-        <v>0.371096004150272</v>
+        <v>34.261431</v>
       </c>
       <c r="I10">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J10">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.84531303183607</v>
+        <v>0.1179923333333333</v>
       </c>
       <c r="N10">
-        <v>2.84531303183607</v>
+        <v>0.353977</v>
       </c>
       <c r="O10">
-        <v>0.2570121504448814</v>
+        <v>0.009965490978575419</v>
       </c>
       <c r="P10">
-        <v>0.2570121504448814</v>
+        <v>0.009965490978575417</v>
       </c>
       <c r="Q10">
-        <v>1.055884296671061</v>
+        <v>1.347528729009666</v>
       </c>
       <c r="R10">
-        <v>1.055884296671061</v>
+        <v>12.127758561087</v>
       </c>
       <c r="S10">
-        <v>0.001859141549791647</v>
+        <v>0.002068534497970228</v>
       </c>
       <c r="T10">
-        <v>0.001859141549791647</v>
+        <v>0.002068534497970228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.387740711516154</v>
+        <v>11.420477</v>
       </c>
       <c r="H11">
-        <v>0.387740711516154</v>
+        <v>34.261431</v>
       </c>
       <c r="I11">
-        <v>0.007558122498145594</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J11">
-        <v>0.007558122498145594</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.12540955392633</v>
+        <v>3.352186666666667</v>
       </c>
       <c r="N11">
-        <v>8.12540955392633</v>
+        <v>10.05656</v>
       </c>
       <c r="O11">
-        <v>0.7339540357541608</v>
+        <v>0.2831216659712423</v>
       </c>
       <c r="P11">
-        <v>0.7339540357541608</v>
+        <v>0.2831216659712423</v>
       </c>
       <c r="Q11">
-        <v>3.150552081799551</v>
+        <v>38.28357072637333</v>
       </c>
       <c r="R11">
-        <v>3.150552081799551</v>
+        <v>344.5521365373601</v>
       </c>
       <c r="S11">
-        <v>0.005547314510238279</v>
+        <v>0.05876749419003913</v>
       </c>
       <c r="T11">
-        <v>0.005547314510238279</v>
+        <v>0.05876749419003913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.387740711516154</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H12">
-        <v>0.387740711516154</v>
+        <v>2.050948</v>
       </c>
       <c r="I12">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J12">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.100010945360181</v>
+        <v>0.1882753333333333</v>
       </c>
       <c r="N12">
-        <v>0.100010945360181</v>
+        <v>0.5648259999999999</v>
       </c>
       <c r="O12">
-        <v>0.009033813800957758</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="P12">
-        <v>0.009033813800957758</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="Q12">
-        <v>0.03877831511335978</v>
+        <v>0.1287143061164444</v>
       </c>
       <c r="R12">
-        <v>0.03877831511335978</v>
+        <v>1.158428755048</v>
       </c>
       <c r="S12">
-        <v>6.827867133307699E-05</v>
+        <v>0.000197583900700833</v>
       </c>
       <c r="T12">
-        <v>6.827867133307699E-05</v>
+        <v>0.000197583900700833</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.387740711516154</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H13">
-        <v>0.387740711516154</v>
+        <v>2.050948</v>
       </c>
       <c r="I13">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J13">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.84531303183607</v>
+        <v>8.179402000000001</v>
       </c>
       <c r="N13">
-        <v>2.84531303183607</v>
+        <v>24.538206</v>
       </c>
       <c r="O13">
-        <v>0.2570121504448814</v>
+        <v>0.6908224842953787</v>
       </c>
       <c r="P13">
-        <v>0.2570121504448814</v>
+        <v>0.6908224842953786</v>
       </c>
       <c r="Q13">
-        <v>1.103243699450303</v>
+        <v>5.591842724365335</v>
       </c>
       <c r="R13">
-        <v>1.103243699450303</v>
+        <v>50.32658451928801</v>
       </c>
       <c r="S13">
-        <v>0.001942529316574238</v>
+        <v>0.008583801839293139</v>
       </c>
       <c r="T13">
-        <v>0.001942529316574238</v>
+        <v>0.008583801839293137</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.616499757877066</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H14">
-        <v>0.616499757877066</v>
+        <v>2.050948</v>
       </c>
       <c r="I14">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J14">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>8.12540955392633</v>
+        <v>0.002236</v>
       </c>
       <c r="N14">
-        <v>8.12540955392633</v>
+        <v>0.006708</v>
       </c>
       <c r="O14">
-        <v>0.7339540357541608</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="P14">
-        <v>0.7339540357541608</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="Q14">
-        <v>5.009313022647581</v>
+        <v>0.001528639909333333</v>
       </c>
       <c r="R14">
-        <v>5.009313022647581</v>
+        <v>0.013757759184</v>
       </c>
       <c r="S14">
-        <v>0.008820115997252853</v>
+        <v>2.346550629576521E-06</v>
       </c>
       <c r="T14">
-        <v>0.008820115997252853</v>
+        <v>2.346550629576521E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.616499757877066</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H15">
-        <v>0.616499757877066</v>
+        <v>2.050948</v>
       </c>
       <c r="I15">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J15">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.100010945360181</v>
+        <v>0.1179923333333333</v>
       </c>
       <c r="N15">
-        <v>0.100010945360181</v>
+        <v>0.353977</v>
       </c>
       <c r="O15">
-        <v>0.009033813800957758</v>
+        <v>0.009965490978575419</v>
       </c>
       <c r="P15">
-        <v>0.009033813800957758</v>
+        <v>0.009965490978575417</v>
       </c>
       <c r="Q15">
-        <v>0.06165672359960807</v>
+        <v>0.08066538002177777</v>
       </c>
       <c r="R15">
-        <v>0.06165672359960807</v>
+        <v>0.725988420196</v>
       </c>
       <c r="S15">
-        <v>0.0001085616833486829</v>
+        <v>0.0001238260214975563</v>
       </c>
       <c r="T15">
-        <v>0.0001085616833486829</v>
+        <v>0.0001238260214975563</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.616499757877066</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H16">
-        <v>0.616499757877066</v>
+        <v>2.050948</v>
       </c>
       <c r="I16">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J16">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.84531303183607</v>
+        <v>3.352186666666667</v>
       </c>
       <c r="N16">
-        <v>2.84531303183607</v>
+        <v>10.05656</v>
       </c>
       <c r="O16">
-        <v>0.2570121504448814</v>
+        <v>0.2831216659712423</v>
       </c>
       <c r="P16">
-        <v>0.2570121504448814</v>
+        <v>0.2831216659712423</v>
       </c>
       <c r="Q16">
-        <v>1.754134795211398</v>
+        <v>2.291720179875556</v>
       </c>
       <c r="R16">
-        <v>1.754134795211398</v>
+        <v>20.62548161888</v>
       </c>
       <c r="S16">
-        <v>0.003088581667512691</v>
+        <v>0.003517922957569179</v>
       </c>
       <c r="T16">
-        <v>0.003088581667512691</v>
+        <v>0.003517922957569179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.52861740667934</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H17">
-        <v>9.52861740667934</v>
+        <v>1.347404</v>
       </c>
       <c r="I17">
-        <v>0.1857387049093616</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J17">
-        <v>0.1857387049093616</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>8.12540955392633</v>
+        <v>0.1882753333333333</v>
       </c>
       <c r="N17">
-        <v>8.12540955392633</v>
+        <v>0.5648259999999999</v>
       </c>
       <c r="O17">
-        <v>0.7339540357541608</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="P17">
-        <v>0.7339540357541608</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="Q17">
-        <v>77.42391891194103</v>
+        <v>0.08456097907822221</v>
       </c>
       <c r="R17">
-        <v>77.42391891194103</v>
+        <v>0.761048811704</v>
       </c>
       <c r="S17">
-        <v>0.1363236720639771</v>
+        <v>0.0001298059912488787</v>
       </c>
       <c r="T17">
-        <v>0.1363236720639771</v>
+        <v>0.0001298059912488786</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.52861740667934</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H18">
-        <v>9.52861740667934</v>
+        <v>1.347404</v>
       </c>
       <c r="I18">
-        <v>0.1857387049093616</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J18">
-        <v>0.1857387049093616</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.100010945360181</v>
+        <v>8.179402000000001</v>
       </c>
       <c r="N18">
-        <v>0.100010945360181</v>
+        <v>24.538206</v>
       </c>
       <c r="O18">
-        <v>0.009033813800957758</v>
+        <v>0.6908224842953787</v>
       </c>
       <c r="P18">
-        <v>0.009033813800957758</v>
+        <v>0.6908224842953786</v>
       </c>
       <c r="Q18">
-        <v>0.952966034817477</v>
+        <v>3.673652990802668</v>
       </c>
       <c r="R18">
-        <v>0.952966034817477</v>
+        <v>33.062876917224</v>
       </c>
       <c r="S18">
-        <v>0.001677928875782211</v>
+        <v>0.005639269710139375</v>
       </c>
       <c r="T18">
-        <v>0.001677928875782211</v>
+        <v>0.005639269710139374</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.347404</v>
+      </c>
+      <c r="I19">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J19">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.002236</v>
+      </c>
+      <c r="N19">
+        <v>0.006708</v>
+      </c>
+      <c r="O19">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="P19">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="Q19">
+        <v>0.001004265114666667</v>
+      </c>
+      <c r="R19">
+        <v>0.009038386032000001</v>
+      </c>
+      <c r="S19">
+        <v>1.541605006316066E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.541605006316066E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.347404</v>
+      </c>
+      <c r="I20">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J20">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.353977</v>
+      </c>
+      <c r="O20">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P20">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q20">
+        <v>0.05299444730088888</v>
+      </c>
+      <c r="R20">
+        <v>0.476950025708</v>
+      </c>
+      <c r="S20">
+        <v>8.134954014918633E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.134954014918632E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.347404</v>
+      </c>
+      <c r="I21">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J21">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N21">
+        <v>10.05656</v>
+      </c>
+      <c r="O21">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P21">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q21">
+        <v>1.505583241137778</v>
+      </c>
+      <c r="R21">
+        <v>13.55024917024</v>
+      </c>
+      <c r="S21">
+        <v>0.002311157311019364</v>
+      </c>
+      <c r="T21">
+        <v>0.002311157311019364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.970496</v>
+      </c>
+      <c r="I22">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J22">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1882753333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.5648259999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="P22">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="Q22">
+        <v>0.123665263744</v>
+      </c>
+      <c r="R22">
+        <v>1.112987373696</v>
+      </c>
+      <c r="S22">
+        <v>0.0001898333287803439</v>
+      </c>
+      <c r="T22">
+        <v>0.0001898333287803438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H23">
+        <v>1.970496</v>
+      </c>
+      <c r="I23">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J23">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.179402000000001</v>
+      </c>
+      <c r="N23">
+        <v>24.538206</v>
+      </c>
+      <c r="O23">
+        <v>0.6908224842953787</v>
+      </c>
+      <c r="P23">
+        <v>0.6908224842953786</v>
+      </c>
+      <c r="Q23">
+        <v>5.372492974464001</v>
+      </c>
+      <c r="R23">
+        <v>48.35243677017601</v>
+      </c>
+      <c r="S23">
+        <v>0.008247087292861532</v>
+      </c>
+      <c r="T23">
+        <v>0.00824708729286153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H24">
+        <v>1.970496</v>
+      </c>
+      <c r="I24">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J24">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.002236</v>
+      </c>
+      <c r="N24">
+        <v>0.006708</v>
+      </c>
+      <c r="O24">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="P24">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="Q24">
+        <v>0.001468676352</v>
+      </c>
+      <c r="R24">
+        <v>0.013218087168</v>
+      </c>
+      <c r="S24">
+        <v>2.25450310265205E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.25450310265205E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.970496</v>
+      </c>
+      <c r="I25">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J25">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.353977</v>
+      </c>
+      <c r="O25">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P25">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q25">
+        <v>0.07750114028800001</v>
+      </c>
+      <c r="R25">
+        <v>0.6975102625920001</v>
+      </c>
+      <c r="S25">
+        <v>0.0001189687305854897</v>
+      </c>
+      <c r="T25">
+        <v>0.0001189687305854896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>9.52861740667934</v>
-      </c>
-      <c r="H19">
-        <v>9.52861740667934</v>
-      </c>
-      <c r="I19">
-        <v>0.1857387049093616</v>
-      </c>
-      <c r="J19">
-        <v>0.1857387049093616</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.84531303183607</v>
-      </c>
-      <c r="N19">
-        <v>2.84531303183607</v>
-      </c>
-      <c r="O19">
-        <v>0.2570121504448814</v>
-      </c>
-      <c r="P19">
-        <v>0.2570121504448814</v>
-      </c>
-      <c r="Q19">
-        <v>27.11189928260475</v>
-      </c>
-      <c r="R19">
-        <v>27.11189928260475</v>
-      </c>
-      <c r="S19">
-        <v>0.04773710396960228</v>
-      </c>
-      <c r="T19">
-        <v>0.04773710396960228</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H26">
+        <v>1.970496</v>
+      </c>
+      <c r="I26">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J26">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N26">
+        <v>10.05656</v>
+      </c>
+      <c r="O26">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P26">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q26">
+        <v>2.201823472640001</v>
+      </c>
+      <c r="R26">
+        <v>19.81641125376001</v>
+      </c>
+      <c r="S26">
+        <v>0.003379926315147064</v>
+      </c>
+      <c r="T26">
+        <v>0.003379926315147064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>9.899486</v>
+      </c>
+      <c r="H27">
+        <v>29.698458</v>
+      </c>
+      <c r="I27">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J27">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.1882753333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.5648259999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="P27">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="Q27">
+        <v>1.863829026478667</v>
+      </c>
+      <c r="R27">
+        <v>16.774461238308</v>
+      </c>
+      <c r="S27">
+        <v>0.002861085301255741</v>
+      </c>
+      <c r="T27">
+        <v>0.002861085301255741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>9.899486</v>
+      </c>
+      <c r="H28">
+        <v>29.698458</v>
+      </c>
+      <c r="I28">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J28">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.179402000000001</v>
+      </c>
+      <c r="N28">
+        <v>24.538206</v>
+      </c>
+      <c r="O28">
+        <v>0.6908224842953787</v>
+      </c>
+      <c r="P28">
+        <v>0.6908224842953786</v>
+      </c>
+      <c r="Q28">
+        <v>80.97187558737201</v>
+      </c>
+      <c r="R28">
+        <v>728.7468802863481</v>
+      </c>
+      <c r="S28">
+        <v>0.1242965099088665</v>
+      </c>
+      <c r="T28">
+        <v>0.1242965099088665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>9.899486</v>
+      </c>
+      <c r="H29">
+        <v>29.698458</v>
+      </c>
+      <c r="I29">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J29">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.002236</v>
+      </c>
+      <c r="N29">
+        <v>0.006708</v>
+      </c>
+      <c r="O29">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="P29">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="Q29">
+        <v>0.022135250696</v>
+      </c>
+      <c r="R29">
+        <v>0.199217256264</v>
+      </c>
+      <c r="S29">
+        <v>3.397888942935261E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.39788894293526E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>9.899486</v>
+      </c>
+      <c r="H30">
+        <v>29.698458</v>
+      </c>
+      <c r="I30">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J30">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.353977</v>
+      </c>
+      <c r="O30">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P30">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q30">
+        <v>1.168063451940667</v>
+      </c>
+      <c r="R30">
+        <v>10.512571067466</v>
+      </c>
+      <c r="S30">
+        <v>0.001793044923007446</v>
+      </c>
+      <c r="T30">
+        <v>0.001793044923007445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>9.899486</v>
+      </c>
+      <c r="H31">
+        <v>29.698458</v>
+      </c>
+      <c r="I31">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J31">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N31">
+        <v>10.05656</v>
+      </c>
+      <c r="O31">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P31">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q31">
+        <v>33.18492497605333</v>
+      </c>
+      <c r="R31">
+        <v>298.66432478448</v>
+      </c>
+      <c r="S31">
+        <v>0.05094077821700212</v>
+      </c>
+      <c r="T31">
+        <v>0.05094077821700212</v>
       </c>
     </row>
   </sheetData>
